--- a/process/outputs/excel_files/final_invoice_data.xlsx
+++ b/process/outputs/excel_files/final_invoice_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,151 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>TST</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>testraj</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>SSFLUM</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>South City Lumber &amp; Supply</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>106386</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>25.02</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>5030</t>
-        </is>
-      </c>
-      <c r="Q3" t="n">
-        <v>320</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>106386 ssflum.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>TST</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>07/15/25</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>testraj</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SSFLUM</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>South City Lumber &amp; Supply</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>106465</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>07/15/25</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>36.70</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>33.40</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>1200</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>SHOP</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>106465 ssflum.pdf</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/process/outputs/excel_files/final_invoice_data.xlsx
+++ b/process/outputs/excel_files/final_invoice_data.xlsx
@@ -437,7 +437,7 @@
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="28" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
@@ -452,7 +452,7 @@
     <col width="12" customWidth="1" min="17" max="17"/>
     <col width="11" customWidth="1" min="18" max="18"/>
     <col width="9" customWidth="1" min="19" max="19"/>
-    <col width="19" customWidth="1" min="20" max="20"/>
+    <col width="49" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -565,7 +565,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>07/07/25</t>
+          <t>08/04/25</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -575,12 +575,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SSFLUM</t>
+          <t>LORSON</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>South City Lumber &amp; Supply</t>
+          <t>Lord &amp; Sons Inc.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -590,31 +590,36 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>106271</t>
+          <t>01-871062</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>07/07/25</t>
+          <t>08/04/25</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>138.24</t>
+          <t>89.00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>12.42</t>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>125.82</t>
+          <t>81.00</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>25.16</v>
+        <v>25.09</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -631,7 +636,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>106271 ssflum.pdf</t>
+          <t>doc11186020250805072454_part2_1754514342703.pdf</t>
         </is>
       </c>
     </row>

--- a/process/outputs/excel_files/final_invoice_data.xlsx
+++ b/process/outputs/excel_files/final_invoice_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,7 +439,7 @@
     <col width="13" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="16" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="16" customWidth="1" min="9" max="9"/>
     <col width="12" customWidth="1" min="10" max="10"/>
@@ -449,10 +449,8 @@
     <col width="12" customWidth="1" min="14" max="14"/>
     <col width="11" customWidth="1" min="15" max="15"/>
     <col width="25" customWidth="1" min="16" max="16"/>
-    <col width="12" customWidth="1" min="17" max="17"/>
-    <col width="11" customWidth="1" min="18" max="18"/>
-    <col width="9" customWidth="1" min="19" max="19"/>
-    <col width="49" customWidth="1" min="20" max="20"/>
+    <col width="26" customWidth="1" min="17" max="17"/>
+    <col width="45" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -538,20 +536,10 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Phase_Code</t>
+          <t>Remarks</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Cost_Type</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Remarks</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>file_name</t>
         </is>
@@ -565,7 +553,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>08/04/25</t>
+          <t>08/06/25</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -575,12 +563,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LORSON</t>
+          <t>JONSUP</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Lord &amp; Sons Inc.</t>
+          <t>Johnstone Supply</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -590,22 +578,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>01-871062</t>
+          <t>110-S10112669.001</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08/04/25</t>
+          <t>08/06/25</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>89.00</t>
+          <t>99.31</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -615,28 +603,22 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>81.00</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
-        <v>25.09</v>
+          <t>90.38</t>
+        </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>5030</t>
-        </is>
-      </c>
-      <c r="Q2" t="n">
-        <v>320</v>
+          <t>5260</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>San Leandro Unit Install</t>
+        </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>doc11186020250805072454_part2_1754514342703.pdf</t>
+          <t>110-s101126669.001 jonsup_1754579789882.pdf</t>
         </is>
       </c>
     </row>

--- a/process/outputs/excel_files/final_invoice_data.xlsx
+++ b/process/outputs/excel_files/final_invoice_data.xlsx
@@ -437,9 +437,9 @@
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="19" customWidth="1" min="7" max="7"/>
+    <col width="16" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="16" customWidth="1" min="9" max="9"/>
     <col width="12" customWidth="1" min="10" max="10"/>
@@ -449,7 +449,7 @@
     <col width="12" customWidth="1" min="14" max="14"/>
     <col width="11" customWidth="1" min="15" max="15"/>
     <col width="25" customWidth="1" min="16" max="16"/>
-    <col width="26" customWidth="1" min="17" max="17"/>
+    <col width="9" customWidth="1" min="17" max="17"/>
     <col width="45" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
@@ -553,7 +553,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>08/06/25</t>
+          <t>07/28/25</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -563,12 +563,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>JONSUP</t>
+          <t>SLABRO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Johnstone Supply</t>
+          <t xml:space="preserve">Slakey </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -578,47 +578,42 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>110-S10112669.001</t>
+          <t>860166732</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08/06/25</t>
+          <t>07/28/25</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>99.31</t>
+          <t>81.53</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>8.93</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0.00</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>90.38</t>
+          <t>74.20</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>5260</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>San Leandro Unit Install</t>
+          <t>Shop</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>110-s101126669.001 jonsup_1754579789882.pdf</t>
+          <t>doc11181820250804113622-5_1754581659155.pdf</t>
         </is>
       </c>
     </row>

--- a/process/outputs/excel_files/final_invoice_data.xlsx
+++ b/process/outputs/excel_files/final_invoice_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,9 +437,9 @@
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="28" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="16" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="16" customWidth="1" min="9" max="9"/>
     <col width="12" customWidth="1" min="10" max="10"/>
@@ -449,8 +449,10 @@
     <col width="12" customWidth="1" min="14" max="14"/>
     <col width="11" customWidth="1" min="15" max="15"/>
     <col width="25" customWidth="1" min="16" max="16"/>
-    <col width="9" customWidth="1" min="17" max="17"/>
-    <col width="45" customWidth="1" min="18" max="18"/>
+    <col width="12" customWidth="1" min="17" max="17"/>
+    <col width="11" customWidth="1" min="18" max="18"/>
+    <col width="21" customWidth="1" min="19" max="19"/>
+    <col width="50" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -536,10 +538,20 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>Phase_Code</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Cost_Type</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>Remarks</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>file_name</t>
         </is>
@@ -553,67 +565,1676 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>07/07/25</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>testraj</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SSFLUM</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>South City Lumber &amp; Supply</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>106271</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>07/07/25</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>138.24</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>12.42</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>125.82</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>5030</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>320</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>106271 ssflum_1754585458291.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>testraj</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SSFLUM</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>South City Lumber &amp; Supply</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>106386</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>25.02</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>5030</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>320</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>106386 ssflum_1754585458293.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>07/15/25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>testraj</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SSFLUM</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>South City Lumber &amp; Supply</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>106465</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>07/15/25</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>36.70</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>33.40</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>5260</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>PO # SHOP</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>106465 ssflum_1754585458297.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>07/22/25</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>testraj</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SSFLUM</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>South City Lumber &amp; Supply</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>106699</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>07/22/25</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>25.27</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>5030</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>320</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>106699 ssflum_1754585458300.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>07/22/25</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>testraj</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SSFLUM</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>South City Lumber &amp; Supply</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>106700</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>07/22/25</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>25.02</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>5030</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>320</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>106700 ssflum_1754585458306.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>07/28/25</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>testraj</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SSFLUM</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>South City Lumber &amp; Supply</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>107155</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>07/28/25</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>36.30</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>33.04</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>25.04</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>5030</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>320</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>107155 ssflum_1754585458308.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>07/30/25</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>testraj</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SSFLUM</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>South City Lumber &amp; Supply</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>107274</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>07/30/25</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>33.06</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>30.09</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>5260</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>650-615-0248</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>107274 ssflum_1754585458315.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>08/04/25</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>testraj</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CAPAIR</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Captive Aire</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2457243</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>08/04/25</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>4852929</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>441685</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>102125</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>4309119</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>1412</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>5030</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>320</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>captive aire_1754585458319.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>07/28/25</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>testraj</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SLABRO</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Slakey </t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Slakey</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>860166732</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>07/28/25</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>81.53</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>7.33</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>74.20</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>1200</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>Shop</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>doc11181820250804113622-5_1754581659155.pdf</t>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>doc11181820250804113622-5_1754585458321.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>07/29/25</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>testraj</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SLABRO</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Slakey</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>860180375</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>07/29/25</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>6271</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>563</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>5708</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>2660</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>5030</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>320</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>doc11181820250804113622-6_1754585458323.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>07/30/25</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>testraj</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SLABRO</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Slakey</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>860186777</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>07/30/25</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1791.43</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>161.00</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>1630.43</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>SHOP</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>doc11181820250804113622-7_1754585458339.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>07/30/25</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>testraj</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SLABRO</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Slakey</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>860184845</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>07/30/25</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>190.16</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>16.10</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>174.06</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>25.28</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>5030</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>320</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>doc11181820250804113622-8_1754585458343.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>08/04/25</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>testraj</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>AIRSUP</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Air Filter Supply</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>IN1019091</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>08/04/25</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>41.70</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>doc11186020250805072454_part10_1754585458406.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>08/04/25</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>testraj</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>LORSON</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Lord &amp; Sons Inc.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>01-871043</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>08/04/25</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>104.38</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>SHOP STOCK</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>doc11186020250805072454_part1_1754585458364.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>08/04/25</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>testraj</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>LORSON</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Lord &amp; Sons Inc.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>01-871062</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>08/04/25</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>25.09</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>5030</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>320</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>doc11186020250805072454_part2_1754585458367.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>08/04/25</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>testraj</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>LORSON</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Lord &amp; Sons Inc.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>01-871060</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>08/04/25</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>356.00</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>32.00</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>324.00</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>25.09</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>5030</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>320</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>doc11186020250805072454_part3_1754585458369.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>08/04/25</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>testraj</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>LORSON</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Lord &amp; Sons Inc.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>01-871050</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>08/04/25</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>13.84</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>2533</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>5030</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>320</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>doc11186020250805072454_part4_1754585458373.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>08/04/25</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>testraj</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>JONSUP</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Johnstone Supply</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>110-S101125942.001</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>08/04/25</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>107.30</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>97.66</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>5260</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Ricky's Truck Stock</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>doc11186020250805072454_part5_1754585458378.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>08/04/25</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>testraj</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>OMNDUC</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Omni Duct NoCal</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1179219</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>08/04/25</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>734.34</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>62.16</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>672.18</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>5260</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>950</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>doc11186020250805072454_part6_1754585458391.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>08/04/25</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>testraj</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>OMNDUC</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Omni Duct NoCal</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1179217</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>08/04/25</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1122.48</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>1027.44</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>5260</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>HOME 2 SUITES</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>doc11186020250805072454_part7_1754585458393.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>08/05/25</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>testraj</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>OMNDUC</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Omni Duct NoCal</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1179211</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>08/05/25</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>11875.42</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>1128.44</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>10746.98</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>5260</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>TOKYO</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>doc11186020250805072454_part8_1754585458395.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>TST</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>08/04/25</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>testraj</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>RSDTOT</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>RSD</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>11394708-00</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>08/04/25</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>174.90</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>16.98</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>157.92</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>2506</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>5030</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>320</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>doc11186020250805072454_part9_1754585458396.pdf</t>
         </is>
       </c>
     </row>

--- a/process/outputs/excel_files/final_invoice_data.xlsx
+++ b/process/outputs/excel_files/final_invoice_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,10 +449,8 @@
     <col width="12" customWidth="1" min="14" max="14"/>
     <col width="11" customWidth="1" min="15" max="15"/>
     <col width="25" customWidth="1" min="16" max="16"/>
-    <col width="12" customWidth="1" min="17" max="17"/>
-    <col width="11" customWidth="1" min="18" max="18"/>
-    <col width="26" customWidth="1" min="19" max="19"/>
-    <col width="45" customWidth="1" min="20" max="20"/>
+    <col width="21" customWidth="1" min="17" max="17"/>
+    <col width="49" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -538,20 +536,10 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Phase_Code</t>
+          <t>Remarks</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Cost_Type</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Remarks</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>file_name</t>
         </is>
@@ -565,7 +553,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>08/06/25</t>
+          <t>08/04/25</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -575,12 +563,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LORSON</t>
+          <t>JONSUP</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Lord &amp; Sons Inc.</t>
+          <t>Johnstone Supply</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -590,22 +578,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>01-871775</t>
+          <t>110-S101125942.001</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08/06/25</t>
+          <t>08/04/25</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>453.05</t>
+          <t>107.30</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>43.05</t>
+          <t>9.64</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -615,188 +603,22 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>410.00</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
-        <v>25.04</v>
+          <t>97.66</t>
+        </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>5030</t>
-        </is>
-      </c>
-      <c r="Q2" t="n">
-        <v>320</v>
+          <t>5260</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Ricky's Truck Stock</t>
+        </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>01-871775 lorson_1754587872045.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>TST</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>08/01/25</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>testraj</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>JONSUP</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Johnstone Supply</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>110-S101115456.001</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>08/01/25</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>72634.04</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>6149.79</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>66484.25</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>1443</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>5030</t>
-        </is>
-      </c>
-      <c r="Q3" t="n">
-        <v>320</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>110-s101115456.001 jonsup_1754587872046.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>TST</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>08/06/25</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>testraj</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>JONSUP</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Johnstone Supply</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>110-S10112669.001</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>08/06/25</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>99.31</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>8.93</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>90.38</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>5260</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>San Leandro Unit Install</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>110-s101126669.001 jonsup_1754587872044.pdf</t>
+          <t>doc11186020250805072454_part5_1754589676328.pdf</t>
         </is>
       </c>
     </row>

--- a/process/outputs/excel_files/final_invoice_data.xlsx
+++ b/process/outputs/excel_files/final_invoice_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,9 +437,9 @@
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="16" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="16" customWidth="1" min="9" max="9"/>
     <col width="12" customWidth="1" min="10" max="10"/>
@@ -449,8 +449,10 @@
     <col width="12" customWidth="1" min="14" max="14"/>
     <col width="11" customWidth="1" min="15" max="15"/>
     <col width="25" customWidth="1" min="16" max="16"/>
-    <col width="21" customWidth="1" min="17" max="17"/>
-    <col width="49" customWidth="1" min="18" max="18"/>
+    <col width="12" customWidth="1" min="17" max="17"/>
+    <col width="11" customWidth="1" min="18" max="18"/>
+    <col width="9" customWidth="1" min="19" max="19"/>
+    <col width="32" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -536,10 +538,20 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>Phase_Code</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Cost_Type</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>Remarks</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>file_name</t>
         </is>
@@ -563,12 +575,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>JONSUP</t>
+          <t>CAPAIR</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Johnstone Supply</t>
+          <t>Captive Aire</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -578,7 +590,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>110-S101125942.001</t>
+          <t>2457243</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -588,37 +600,43 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>107.30</t>
+          <t>4852929</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>9.64</t>
+          <t>441685</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>102125</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>97.66</t>
-        </is>
+          <t>4309119</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>1412</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>5260</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Ricky's Truck Stock</t>
-        </is>
+          <t>5030</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>320</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>doc11186020250805072454_part5_1754589676328.pdf</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>captive aire_1754662125633.pdf</t>
         </is>
       </c>
     </row>

--- a/process/outputs/excel_files/final_invoice_data.xlsx
+++ b/process/outputs/excel_files/final_invoice_data.xlsx
@@ -600,22 +600,22 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>4852929</t>
+          <t>48529.29</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>441685</t>
+          <t>4416.85</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>102125</t>
+          <t>1021.25</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>4309119</t>
+          <t>43091.19</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -636,7 +636,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>captive aire_1754662125633.pdf</t>
+          <t>captive aire_1754689853322.pdf</t>
         </is>
       </c>
     </row>

--- a/process/outputs/excel_files/final_invoice_data.xlsx
+++ b/process/outputs/excel_files/final_invoice_data.xlsx
@@ -636,7 +636,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>captive aire_1754689853322.pdf</t>
+          <t>captive aire_1754943103394.pdf</t>
         </is>
       </c>
     </row>

--- a/process/outputs/excel_files/final_invoice_data.xlsx
+++ b/process/outputs/excel_files/final_invoice_data.xlsx
@@ -437,7 +437,7 @@
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="36" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
@@ -452,7 +452,7 @@
     <col width="12" customWidth="1" min="17" max="17"/>
     <col width="11" customWidth="1" min="18" max="18"/>
     <col width="9" customWidth="1" min="19" max="19"/>
-    <col width="32" customWidth="1" min="20" max="20"/>
+    <col width="30" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -560,27 +560,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>AA1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>08/04/25</t>
+          <t>08/07/25</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>testraj</t>
+          <t>2025-08-14</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CAPAIR</t>
+          <t>NORWRI</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Captive Aire</t>
+          <t>Norman S. Wright Mech. Equip. LLC.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -590,53 +590,48 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2457243</t>
+          <t>127310</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08/04/25</t>
+          <t>08/07/25</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>48529.29</t>
+          <t>74143.65</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>4416.85</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>1021.25</t>
+          <t>6663.65</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>43091.19</t>
+          <t>67480.00</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>5030</t>
+          <t>5040</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>captive aire_1754943103394.pdf</t>
+          <t>127310 nsw_1755208409430.pdf</t>
         </is>
       </c>
     </row>

--- a/process/outputs/excel_files/final_invoice_data.xlsx
+++ b/process/outputs/excel_files/final_invoice_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,7 +437,7 @@
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="36" customWidth="1" min="5" max="5"/>
+    <col width="27" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
@@ -451,8 +451,8 @@
     <col width="25" customWidth="1" min="16" max="16"/>
     <col width="12" customWidth="1" min="17" max="17"/>
     <col width="11" customWidth="1" min="18" max="18"/>
-    <col width="9" customWidth="1" min="19" max="19"/>
-    <col width="30" customWidth="1" min="20" max="20"/>
+    <col width="12" customWidth="1" min="19" max="19"/>
+    <col width="44" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -565,22 +565,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>08/07/25</t>
+          <t>08/21/25</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-08-14</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NORWRI</t>
+          <t>RSDTOT</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Norman S. Wright Mech. Equip. LLC.</t>
+          <t>RSD</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -590,48 +590,434 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>127310</t>
+          <t>11395918-00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08/07/25</t>
+          <t>08/21/25</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>74143.65</t>
+          <t>186.74</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>6663.65</t>
+          <t>18.13</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>67480.00</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>1410</v>
+          <t>168.61</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>25.19</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>5040</t>
+          <t>5030</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>127310 nsw_1755208409430.pdf</t>
+          <t>1_1755887243708.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AA1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>08/21/25</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>RSDTOT</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>RSD</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>39395877-00</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>08/21/25</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>324.04</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>294.91</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>5030</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>320</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>2_1755887243712.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AA1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>08/21/25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>RSDTOT</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>RSD</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>39395879-00</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>08/21/25</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>997.32</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>907.68</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>24.68</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>5030</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>320</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>3_1755887243715.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AA1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>08/21/25</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>JONSUP</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Johnstone Supply</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>101130827.1</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>08/21/25</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>783.30</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>712.90</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>13616</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>5260</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>4_1755887243717.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AA1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>08/21/25</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LORSON</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Lord &amp; Sons Inc.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>08/21/25</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>31.31</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>28.50</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>SHOP STOCK</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>inv-01-875854.pdf_page_1_1755887243721.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AA1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>08/21/25</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CALHYD</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>California Hydronics Corp</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>SIN221250</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>08/21/25</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>377.97</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>33.97</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>344.00</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>1504</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>5030</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>320</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>sin221250_page_1_1755887243722.pdf</t>
         </is>
       </c>
     </row>

--- a/process/outputs/excel_files/final_invoice_data.xlsx
+++ b/process/outputs/excel_files/final_invoice_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,7 +437,7 @@
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="27" customWidth="1" min="5" max="5"/>
+    <col width="36" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
@@ -565,7 +565,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>08/21/25</t>
+          <t>08/13/25</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -575,12 +575,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>RSDTOT</t>
+          <t>NORWRI</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>RSD</t>
+          <t>Norman S. Wright Mech. Equip. LLC.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -590,48 +590,48 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11395918-00</t>
+          <t>127813</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08/21/25</t>
+          <t>08/13/25</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>186.74</t>
+          <t>821.02</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>18.13</t>
+          <t>73.79</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>168.61</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
-        <v>25.19</v>
+          <t>747.23</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>1466</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>5030</t>
+          <t>5040</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>1_1755887243708.pdf</t>
+          <t>127813_1755894601049.pdf</t>
         </is>
       </c>
     </row>
@@ -668,7 +668,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>39395877-00</t>
+          <t>11395918-00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -678,21 +678,21 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>324.04</t>
+          <t>186.74</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>29.13</t>
+          <t>18.13</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>294.91</t>
+          <t>168.61</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>25.16</v>
+        <v>25.19</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2_1755887243712.pdf</t>
+          <t>1_1755894595697.pdf</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>39395879-00</t>
+          <t>39395877-00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -756,21 +756,21 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>997.32</t>
+          <t>324.04</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>89.64</t>
+          <t>29.13</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>907.68</t>
+          <t>294.91</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>24.68</v>
+        <v>25.16</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>3_1755887243715.pdf</t>
+          <t>2_1755894595700.pdf</t>
         </is>
       </c>
     </row>
@@ -809,12 +809,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>JONSUP</t>
+          <t>RSDTOT</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Johnstone Supply</t>
+          <t>RSD</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>101130827.1</t>
+          <t>39395879-00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -834,35 +834,38 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>783.30</t>
+          <t>997.32</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>70.40</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0.00</t>
+          <t>89.64</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>712.90</t>
-        </is>
-      </c>
-      <c r="O5" t="n">
-        <v>13616</v>
+          <t>907.68</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>24.68</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>5260</t>
+          <t>5030</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>320</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>4_1755887243717.pdf</t>
+          <t>3_1755894595693.pdf</t>
         </is>
       </c>
     </row>
@@ -884,12 +887,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LORSON</t>
+          <t>JONSUP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Lord &amp; Sons Inc.</t>
+          <t>Johnstone Supply</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -897,6 +900,11 @@
           <t>I</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>101130827.1</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>08/21/25</t>
@@ -904,12 +912,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>31.31</t>
+          <t>783.30</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>70.40</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -919,22 +927,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>28.50</t>
-        </is>
+          <t>712.90</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>13616</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1200</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>SHOP STOCK</t>
+          <t>5260</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>inv-01-875854.pdf_page_1_1755887243721.pdf</t>
+          <t>4_1755894595691.pdf</t>
         </is>
       </c>
     </row>
@@ -956,68 +962,140 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>LORSON</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Lord &amp; Sons Inc.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>08/21/25</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>31.31</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>28.50</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>SHOP STOCK</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>inv-01-875854.pdf_page_1_1755894595704.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AA1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>08/21/25</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>CALHYD</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>California Hydronics Corp</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>SIN221250</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>08/21/25</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>377.97</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>33.97</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>344.00</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="M8" t="n">
         <v>1504</v>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>5030</t>
         </is>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q8" t="n">
         <v>320</v>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>sin221250_page_1_1755887243722.pdf</t>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>sin221250_page_1_1755894595706.pdf</t>
         </is>
       </c>
     </row>
